--- a/bots/crawl_ch/output/toilet_coop_2022-08-05.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-05.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -604,36 +604,34 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,7 +640,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -656,118 +654,102 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -777,7 +759,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -787,7 +769,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -802,67 +784,85 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>40ST</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-05 07:01:39</t>
+          <t>2022-08-05 20:58:21</t>
         </is>
       </c>
     </row>
